--- a/ARLIS_triggers.xlsx
+++ b/ARLIS_triggers.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>Lexical item</t>
   </si>
@@ -41,6 +41,12 @@
   </si>
   <si>
     <t>arrest</t>
+  </si>
+  <si>
+    <t>receive</t>
+  </si>
+  <si>
+    <t>lose</t>
   </si>
 </sst>
 </file>
@@ -382,6 +388,34 @@
         <v>-1.0</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>-1.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/ARLIS_triggers.xlsx
+++ b/ARLIS_triggers.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>Lexical item</t>
   </si>
@@ -28,6 +28,9 @@
     <t>Default Sentiment Value</t>
   </si>
   <si>
+    <t>Added just to get examples out</t>
+  </si>
+  <si>
     <t>stall</t>
   </si>
   <si>
@@ -47,13 +50,19 @@
   </si>
   <si>
     <t>lose</t>
+  </si>
+  <si>
+    <t>undermine</t>
+  </si>
+  <si>
+    <t>shun</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -69,6 +78,10 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <name val="Arial"/>
+    </font>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -98,7 +111,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -110,6 +123,18 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -345,13 +370,16 @@
       <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="H1" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F2" s="3">
         <v>3.0</v>
@@ -359,13 +387,16 @@
       <c r="G2" s="3">
         <v>-1.0</v>
       </c>
+      <c r="H2" s="4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3" s="3">
         <v>3.0</v>
@@ -373,13 +404,16 @@
       <c r="G3" s="3">
         <v>1.0</v>
       </c>
+      <c r="H3" s="4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F4" s="3">
         <v>3.0</v>
@@ -387,13 +421,16 @@
       <c r="G4" s="3">
         <v>-1.0</v>
       </c>
+      <c r="H4" s="4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F5" s="3">
         <v>3.0</v>
@@ -401,13 +438,16 @@
       <c r="G5" s="3">
         <v>1.0</v>
       </c>
+      <c r="H5" s="4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F6" s="3">
         <v>3.0</v>
@@ -415,6 +455,46 @@
       <c r="G6" s="3">
         <v>-1.0</v>
       </c>
+      <c r="H6" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="H7" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="H8" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="H9" s="7"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
